--- a/public/files/formato_horario_carga_masiva.xlsx
+++ b/public/files/formato_horario_carga_masiva.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hans\Desktop\work\avintech\app-anvitech\public\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hans\Desktop\work\Anvitech - new-starsoft\app-anvitech-new\public\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B546E99A-C2D2-467B-8DBA-275BB2BA473C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEBA5AF7-3D08-4136-868C-650D1BCA9DCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="852" yWindow="2280" windowWidth="21360" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-22590" yWindow="5130" windowWidth="21675" windowHeight="8865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
   <si>
     <t>dni</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>sabado</t>
+  </si>
+  <si>
+    <t>8:00-16:00</t>
   </si>
 </sst>
 </file>
@@ -90,8 +93,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -372,41 +376,67 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:G3"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="8" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="8" width="10.77734375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>12345678</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
